--- a/medicine/Enfance/Le_Journal_de_Ludo/Le_Journal_de_Ludo.xlsx
+++ b/medicine/Enfance/Le_Journal_de_Ludo/Le_Journal_de_Ludo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal de Ludo est un magazine mensuel paru d’avril 1979 à août 1980, ayant compté dix-sept numéros, comportant notamment des rééditions des Enquêtes de Ludo de Moallic et Crespi dans un format remonté, également publiées dans Pif Gadget.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il succède à Ludo - Ludo détective qui parut de juillet 1972 à juin 1977.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sa couverture avec un fond noir, ressemble à celle d'un roman policier de l'époque, et présente à chaque numéro une personnalité en lien avec les énigmes, telle que Louis de Funès, Claude Brasseur ou Jean-Paul Belmondo.
-Les numéros 1 à 11 sont imprimés par l'imprimerie Alföldi[1] en Hongrie et les numéros 12 à 17 par Brodard &amp; Taupin.
+Les numéros 1 à 11 sont imprimés par l'imprimerie Alföldi en Hongrie et les numéros 12 à 17 par Brodard &amp; Taupin.
 À parti du numéro 13 est créée la carte Club des détectives Ludo.
 Chaque numéro comporte un édito de Roger Dal, le rédacteur en chef.
 Les principaux collaborateurs furent Chica (Marcel Chikhanovitch) (no 1 à 13, 15, 16), Crespi (no 1 à 13, 15, 16), Roger Dal (no 1 à 13, 15, 16), Gil Das (no 1 à 13, 15, 16), De Huescar (no 1), Poppe (no 1), André Poirier (no 1), Dimberton (no 2 à 13, 15, 16), Anne-Marie Ducasse (no 3), Gring (no 2 à 13, 15, 16), France Le Lude (no 1 à 13, 15, 16), Moallic (no 1 à 13, 15, 16), Joël Pavard (no 2 à 7), Léo Becker (no 2 à 13, 15, 16), A. Stuss (no 2 à 11), Claude-Marcel Laurent (Claude-Laurent Mayer)  (no 13, 15, 16), Michèle Lecreux (no 16).
@@ -588,6 +604,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
